--- a/專題/1.xlsx
+++ b/專題/1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,7 +476,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>4,478.56</t>
+          <t>4,486.20</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -486,12 +486,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>23.18</t>
+          <t>5.67</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -511,22 +511,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>8,353.78</t>
+          <t>6,704.38</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.61</t>
+          <t>76.95</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>-1.13</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -546,7 +546,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>7,942.46</t>
+          <t>4,792.28</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -556,12 +556,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>22.04</t>
+          <t>76.99</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>-0.28</t>
+          <t>-1.58</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -581,22 +581,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>4,063.42</t>
+          <t>3,421.01</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>9.25</t>
+          <t>4.68</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>-0.23</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -611,27 +611,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>臺灣企業社會責任中小型指數</t>
+          <t>臺灣5G指數</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>8,668.52</t>
+          <t>7,358.83</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>21.96</t>
+          <t>103.98</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>-1.39</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -646,27 +646,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>臺灣5G+通訊指數</t>
+          <t>臺灣企業社會責任中小型指數</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>7,042.59</t>
+          <t>7,868.80</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>9.60</t>
+          <t>46.59</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>-0.59</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -681,12 +681,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>臺灣全市場指數</t>
+          <t>特選臺灣電動車代表指數</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>6,045.15</t>
+          <t>5,614.52</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -696,12 +696,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>95.34</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>-1.67</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -716,12 +716,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>臺灣全市場半導體指數</t>
+          <t>臺灣5G+通訊指數</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>6,774.24</t>
+          <t>5,491.99</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -731,12 +731,12 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>22.73</t>
+          <t>73.61</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>-0.33</t>
+          <t>-1.32</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -751,27 +751,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>臺灣電動車與自駕科技永續概念指數</t>
+          <t>臺灣全市場指數</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>5,232.73</t>
+          <t>4,958.55</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>5.32</t>
+          <t>37.71</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>-0.75</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -786,12 +786,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>特選小資高價30指數</t>
+          <t>臺灣全市場半導體指數</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>5,702.60</t>
+          <t>4,614.59</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -801,12 +801,12 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>19.72</t>
+          <t>75.63</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>-0.34</t>
+          <t>-1.61</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -821,27 +821,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>特選臺灣綠能及電動車指數</t>
+          <t>臺灣電動車與自駕科技永續概念指數</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>5,004.77</t>
+          <t>4,066.52</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>21.32</t>
+          <t>61.81</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>-1.50</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -856,27 +856,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>特選臺灣智能車供應鏈聯盟指數</t>
+          <t>臺灣智慧移動與電動車指數</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>5,072.07</t>
+          <t>3,821.34</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0.39</t>
+          <t>89.13</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-2.28</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -891,12 +891,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>臺灣全市場半導體精選30指數</t>
+          <t>特選小資高價30指數</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>5,394.52</t>
+          <t>4,404.45</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -906,12 +906,12 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>18.65</t>
+          <t>60.94</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>-0.34</t>
+          <t>-1.36</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -926,27 +926,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>特選臺灣高股息30指數</t>
+          <t>特選臺灣綠能及電動車指數</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>5,289.03</t>
+          <t>4,278.61</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>25.36</t>
+          <t>48.72</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>-1.13</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -961,30 +961,660 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>特選臺灣智能車供應鏈聯盟指數</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>4,116.67</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>57.68</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>-1.38</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>價格指數(跨市場)</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>臺灣全市場半導體精選30指數</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>3,650.93</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>60.08</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>-1.62</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>價格指數(跨市場)</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>特選臺灣高股息30指數</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>3,720.16</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>45.69</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>-1.21</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>價格指數(跨市場)</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
           <t>臺灣友善環境指數</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>5,464.08</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>33.92</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>0.62</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>4,405.02</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>33.48</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>-0.75</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>價格指數(跨市場)</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>台灣永續價值指數</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>4,147.88</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>17.43</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>-0.42</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>價格指數(跨市場)</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>特選臺灣IC設計指數</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2,687.43</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>59.25</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>-2.16</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>價格指數(跨市場)</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>特選臺灣環境永續高股息指數</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>3,939.32</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>49.81</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>-1.25</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>價格指數(跨市場)</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>臺灣友善環境50指數</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>3,845.90</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>28.68</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>-0.74</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>價格指數(跨市場)</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>特選台灣策略高股息30指數</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>3,606.50</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>42.89</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>-1.18</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>價格指數(跨市場)</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>特選臺灣IC設計產業代表指數</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>3,206.18</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>62.69</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>-1.92</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>價格指數(跨市場)</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>特選臺灣綠能指數</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>4,672.27</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>84.78</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>-1.78</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>價格指數(跨市場)</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>特選臺灣成長高股息指數</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>3,776.02</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>44.49</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>-1.16</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>價格指數(跨市場)</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>特選臺灣智慧50指數</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>3,659.05</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>42.04</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>-1.14</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>價格指數(跨市場)</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>特選臺灣標竿PCB指數</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>3,827.08</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>193.17</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>-4.80</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>價格指數(跨市場)</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>臺灣晶圓製造指數</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>4,215.89</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>70.01</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>-1.63</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>價格指數(跨市場)</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>臺灣精選高息指數</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>3,680.99</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>39.22</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>-1.05</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>價格指數(跨市場)</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>臺灣多因子優選高股息30指數</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>4,711.17</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>32.96</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>-0.69</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>價格指數(跨市場)</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>特選臺灣優利高填息30指數</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>4,327.36</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>37.16</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>-0.85</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>價格指數(跨市場)</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>臺灣多因子優選成長30指數</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>5,214.71</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>39.15</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>-0.75</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
         </is>

--- a/專題/1.xlsx
+++ b/專題/1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,22 +476,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>4,448.83</t>
+          <t>4,478.56</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>37.37</t>
+          <t>23.18</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-0.83</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -511,7 +511,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>6,723.46</t>
+          <t>8,353.78</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -521,12 +521,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>19.08</t>
+          <t>2.61</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -546,22 +546,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>4,800.40</t>
+          <t>7,942.46</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>8.12</t>
+          <t>22.04</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>-0.28</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -581,22 +581,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>3,429.29</t>
+          <t>4,063.42</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>8.28</t>
+          <t>9.25</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>-0.23</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -611,27 +611,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>臺灣5G指數</t>
+          <t>臺灣企業社會責任中小型指數</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>7,286.27</t>
+          <t>8,668.52</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>72.56</t>
+          <t>21.96</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>-0.99</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -646,12 +646,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>臺灣企業社會責任中小型指數</t>
+          <t>臺灣5G+通訊指數</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>7,879.69</t>
+          <t>7,042.59</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -661,7 +661,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>10.89</t>
+          <t>9.60</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -681,27 +681,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>特選臺灣電動車代表指數</t>
+          <t>臺灣全市場指數</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>5,623.22</t>
+          <t>6,045.15</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>8.70</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -716,12 +716,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>臺灣5G+通訊指數</t>
+          <t>臺灣全市場半導體指數</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>5,447.52</t>
+          <t>6,774.24</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -731,12 +731,12 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>44.47</t>
+          <t>22.73</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>-0.81</t>
+          <t>-0.33</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -751,27 +751,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>臺灣全市場指數</t>
+          <t>臺灣電動車與自駕科技永續概念指數</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>4,934.77</t>
+          <t>5,232.73</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>23.78</t>
+          <t>5.32</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>-0.48</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -786,12 +786,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>臺灣全市場半導體指數</t>
+          <t>特選小資高價30指數</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>4,576.02</t>
+          <t>5,702.60</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -801,12 +801,12 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>38.57</t>
+          <t>19.72</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>-0.84</t>
+          <t>-0.34</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -821,27 +821,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>臺灣電動車與自駕科技永續概念指數</t>
+          <t>特選臺灣綠能及電動車指數</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>4,040.45</t>
+          <t>5,004.77</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>26.07</t>
+          <t>21.32</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>-0.64</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -856,27 +856,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>臺灣智慧移動與電動車指數</t>
+          <t>特選臺灣智能車供應鏈聯盟指數</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>3,783.42</t>
+          <t>5,072.07</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>37.92</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>-0.99</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -891,12 +891,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>特選小資高價30指數</t>
+          <t>臺灣全市場半導體精選30指數</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>4,387.74</t>
+          <t>5,394.52</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -906,12 +906,12 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>16.71</t>
+          <t>18.65</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>-0.38</t>
+          <t>-0.34</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -926,27 +926,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>特選臺灣綠能及電動車指數</t>
+          <t>特選臺灣高股息30指數</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>4,263.61</t>
+          <t>5,289.03</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>15.00</t>
+          <t>25.36</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>-0.35</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -961,660 +961,30 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>特選臺灣智能車供應鏈聯盟指數</t>
+          <t>臺灣友善環境指數</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>4,090.97</t>
+          <t>5,464.08</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>25.70</t>
+          <t>33.92</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>-0.62</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
-        <is>
-          <t>價格指數(跨市場)</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>臺灣全市場半導體精選30指數</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>3,618.46</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>32.47</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>-0.89</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>價格指數(跨市場)</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>特選臺灣高股息30指數</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>3,716.14</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>4.02</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>-0.11</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>價格指數(跨市場)</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>臺灣友善環境指數</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>4,376.91</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>28.11</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>-0.64</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>價格指數(跨市場)</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>台灣永續價值指數</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>4,120.91</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>26.97</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>-0.65</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>價格指數(跨市場)</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>特選臺灣IC設計指數</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>2,655.85</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>31.58</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>-1.18</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>價格指數(跨市場)</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>特選臺灣環境永續高股息指數</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>3,931.82</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>7.50</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>-0.19</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>價格指數(跨市場)</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>臺灣友善環境50指數</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>3,815.58</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>30.32</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>-0.79</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>價格指數(跨市場)</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>特選台灣策略高股息30指數</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>3,603.32</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>3.18</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>-0.09</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>價格指數(跨市場)</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>特選臺灣IC設計產業代表指數</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>3,201.23</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>4.95</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>-0.15</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>價格指數(跨市場)</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>特選臺灣綠能指數</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>4,695.84</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>23.57</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>0.50</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>價格指數(跨市場)</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>特選臺灣成長高股息指數</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>3,758.44</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>17.58</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>-0.47</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>價格指數(跨市場)</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>特選臺灣智慧50指數</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>3,621.91</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>37.14</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>-1.02</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>價格指數(跨市場)</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>特選臺灣標竿PCB指數</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>3,849.73</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>22.65</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>0.59</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>價格指數(跨市場)</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>臺灣晶圓製造指數</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>4,179.24</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>36.65</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>-0.87</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>價格指數(跨市場)</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>臺灣精選高息指數</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>3,669.43</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>11.56</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>-0.31</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>價格指數(跨市場)</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>臺灣多因子優選高股息30指數</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>4,702.04</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>9.13</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>-0.19</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>價格指數(跨市場)</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>特選臺灣優利高填息30指數</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>4,306.21</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>21.15</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>-0.49</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>價格指數(跨市場)</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>臺灣多因子優選成長30指數</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>5,202.25</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>12.46</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>-0.24</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
         </is>

--- a/專題/1.xlsx
+++ b/專題/1.xlsx
@@ -476,23 +476,21 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>4,486.20</t>
+          <t>4,480.53</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5.67</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
+          <t>99.08</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>-2.16</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -511,7 +509,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>6,704.38</t>
+          <t>6,781.33</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -521,13 +519,11 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>76.95</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>-1.13</t>
-        </is>
+          <t>138.78</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>-2.01</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -546,7 +542,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>4,792.28</t>
+          <t>4,869.27</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -556,13 +552,11 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>76.99</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>-1.58</t>
-        </is>
+          <t>127.59</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>-2.55</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -581,23 +575,21 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>3,421.01</t>
+          <t>3,416.33</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.68</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
+          <t>15.83</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>-0.46</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -616,7 +608,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>7,358.83</t>
+          <t>7,462.81</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -626,13 +618,11 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>103.98</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>-1.39</t>
-        </is>
+          <t>134.76</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>-1.77</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -651,7 +641,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>7,868.80</t>
+          <t>7,915.39</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -661,13 +651,11 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>46.59</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>-0.59</t>
-        </is>
+          <t>112.03</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>-1.4</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -686,7 +674,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>5,614.52</t>
+          <t>5,709.86</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -696,13 +684,11 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>95.34</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>-1.67</t>
-        </is>
+          <t>65.60</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>-1.14</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -721,7 +707,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>5,491.99</t>
+          <t>5,565.60</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -731,13 +717,11 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>73.61</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>-1.32</t>
-        </is>
+          <t>108.71</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>-1.92</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -756,7 +740,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>4,958.55</t>
+          <t>4,996.26</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -766,13 +750,11 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>37.71</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>-0.75</t>
-        </is>
+          <t>87.72</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>-1.73</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -791,7 +773,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>4,614.59</t>
+          <t>4,690.22</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -801,13 +783,11 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>75.63</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>-1.61</t>
-        </is>
+          <t>119.21</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>-2.48</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -826,7 +806,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>4,066.52</t>
+          <t>4,128.33</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -836,13 +816,11 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>61.81</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>-1.50</t>
-        </is>
+          <t>71.21</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>-1.7</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -861,7 +839,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>3,821.34</t>
+          <t>3,910.47</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -871,13 +849,11 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>89.13</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>-2.28</t>
-        </is>
+          <t>82.45</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>-2.06</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -896,7 +872,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>4,404.45</t>
+          <t>4,465.39</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -906,13 +882,11 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>60.94</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>-1.36</t>
-        </is>
+          <t>83.94</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>-1.85</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -931,7 +905,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>4,278.61</t>
+          <t>4,327.33</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -941,13 +915,11 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>48.72</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>-1.13</t>
-        </is>
+          <t>63.44</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>-1.44</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -966,7 +938,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>4,116.67</t>
+          <t>4,174.35</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -976,13 +948,11 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>57.68</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>-1.38</t>
-        </is>
+          <t>75.55</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>-1.78</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1001,7 +971,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>3,650.93</t>
+          <t>3,711.01</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1011,13 +981,11 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>60.08</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>-1.62</t>
-        </is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>-2.47</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1036,7 +1004,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>3,720.16</t>
+          <t>3,765.85</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1046,13 +1014,11 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>45.69</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>-1.21</t>
-        </is>
+          <t>67.16</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>-1.75</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1071,7 +1037,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>4,405.02</t>
+          <t>4,438.50</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1081,13 +1047,11 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>33.48</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>-0.75</t>
-        </is>
+          <t>81.21</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>-1.8</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1106,7 +1070,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>4,147.88</t>
+          <t>4,165.31</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1116,13 +1080,11 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>17.43</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>-0.42</t>
-        </is>
+          <t>59.34</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>-1.4</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1141,7 +1103,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2,687.43</t>
+          <t>2,746.68</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1151,13 +1113,11 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>59.25</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>-2.16</t>
-        </is>
+          <t>113.36</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>-3.96</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1176,7 +1136,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>3,939.32</t>
+          <t>3,989.13</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1186,13 +1146,11 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>49.81</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>-1.25</t>
-        </is>
+          <t>74.55</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>-1.83</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1211,7 +1169,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>3,845.90</t>
+          <t>3,874.58</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1221,13 +1179,11 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>28.68</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>-0.74</t>
-        </is>
+          <t>70.90</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>-1.8</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1246,7 +1202,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>3,606.50</t>
+          <t>3,649.39</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1256,13 +1212,11 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>42.89</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>-1.18</t>
-        </is>
+          <t>70.76</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>-1.9</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1281,7 +1235,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>3,206.18</t>
+          <t>3,268.87</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1291,13 +1245,11 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>62.69</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>-1.92</t>
-        </is>
+          <t>97.97</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>-2.91</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1316,7 +1268,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>4,672.27</t>
+          <t>4,757.05</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1326,13 +1278,11 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>84.78</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>-1.78</t>
-        </is>
+          <t>26.02</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>-0.54</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1351,7 +1301,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>3,776.02</t>
+          <t>3,820.51</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1361,13 +1311,11 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>44.49</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>-1.16</t>
-        </is>
+          <t>98.68</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>-2.52</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1386,7 +1334,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>3,659.05</t>
+          <t>3,701.09</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1396,13 +1344,11 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>42.04</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>-1.14</t>
-        </is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>-2.43</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1421,7 +1367,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>3,827.08</t>
+          <t>4,020.25</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1431,13 +1377,11 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>193.17</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>-4.80</t>
-        </is>
+          <t>45.68</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>-1.12</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1456,7 +1400,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>4,215.89</t>
+          <t>4,285.90</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1466,13 +1410,11 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>70.01</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>-1.63</t>
-        </is>
+          <t>109.72</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>-2.5</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1491,7 +1433,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>3,680.99</t>
+          <t>3,720.21</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1501,13 +1443,11 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>39.22</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>-1.05</t>
-        </is>
+          <t>72.73</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>-1.92</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1526,7 +1466,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>4,711.17</t>
+          <t>4,744.13</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1536,13 +1476,11 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>32.96</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>-0.69</t>
-        </is>
+          <t>57.58</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>-1.2</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1561,7 +1499,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>4,327.36</t>
+          <t>4,364.52</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1571,13 +1509,11 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>37.16</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>-0.85</t>
-        </is>
+          <t>89.18</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>-2</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1596,7 +1532,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>5,214.71</t>
+          <t>5,253.86</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1606,13 +1542,11 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>39.15</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>-0.75</t>
-        </is>
+          <t>65.86</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>-1.24</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>

--- a/專題/1.xlsx
+++ b/專題/1.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>4,480.53</t>
+          <t>4,426.82</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -486,11 +486,11 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>99.08</t>
+          <t>44.29</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>-2.16</v>
+        <v>-0.99</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -509,7 +509,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>6,781.33</t>
+          <t>6,766.97</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -519,11 +519,11 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>138.78</t>
+          <t>43.29</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>-2.01</v>
+        <v>-0.64</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -542,7 +542,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>4,869.27</t>
+          <t>4,696.81</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -552,11 +552,11 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>127.59</t>
+          <t>70.15</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>-2.55</v>
+        <v>-1.47</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -575,21 +575,21 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>3,416.33</t>
+          <t>3,435.60</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>15.83</t>
+          <t>7.45</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>-0.46</v>
+        <v>0.22</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -608,7 +608,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>7,462.81</t>
+          <t>7,334.68</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -618,11 +618,11 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>134.76</t>
+          <t>50.50</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>-1.77</v>
+        <v>-0.68</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -641,21 +641,21 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>7,915.39</t>
+          <t>7,920.31</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>112.03</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>-1.4</v>
+        <v>0.01</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>5,709.86</t>
+          <t>5,625.73</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -684,11 +684,11 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>65.60</t>
+          <t>12.73</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>-1.14</v>
+        <v>-0.23</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -707,7 +707,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>5,565.60</t>
+          <t>5,483.21</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -717,11 +717,11 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>108.71</t>
+          <t>38.39</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>-1.92</v>
+        <v>-0.7</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -740,7 +740,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>4,996.26</t>
+          <t>4,954.39</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -750,11 +750,11 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>87.72</t>
+          <t>33.05</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>-1.73</v>
+        <v>-0.66</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -773,7 +773,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>4,690.22</t>
+          <t>4,605.42</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -783,11 +783,11 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>119.21</t>
+          <t>51.03</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>-2.48</v>
+        <v>-1.1</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -806,7 +806,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>4,128.33</t>
+          <t>4,066.48</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -816,11 +816,11 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>71.21</t>
+          <t>29.10</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>-1.7</v>
+        <v>-0.71</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>3,910.47</t>
+          <t>3,808.10</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -849,11 +849,11 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>82.45</t>
+          <t>8.52</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>-2.06</v>
+        <v>-0.22</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -872,7 +872,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>4,465.39</t>
+          <t>4,406.70</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -882,11 +882,11 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>83.94</t>
+          <t>42.78</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>-1.85</v>
+        <v>-0.96</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -905,7 +905,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>4,327.33</t>
+          <t>4,277.93</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -915,11 +915,11 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>63.44</t>
+          <t>22.14</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>-1.44</v>
+        <v>-0.51</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -938,7 +938,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>4,174.35</t>
+          <t>4,111.17</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -948,11 +948,11 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>75.55</t>
+          <t>30.87</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>-1.78</v>
+        <v>-0.75</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>3,711.01</t>
+          <t>3,647.49</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -981,11 +981,11 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>94.16</t>
+          <t>41.86</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>-2.47</v>
+        <v>-1.13</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>3,765.85</t>
+          <t>3,739.50</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1014,11 +1014,11 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>67.16</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>-1.75</v>
+        <v>-0.02</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1037,7 +1037,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>4,438.50</t>
+          <t>4,404.66</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1047,11 +1047,11 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>81.21</t>
+          <t>20.04</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>-1.8</v>
+        <v>-0.45</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1070,7 +1070,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>4,165.31</t>
+          <t>4,144.55</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1080,11 +1080,11 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>59.34</t>
+          <t>16.42</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>-1.4</v>
+        <v>-0.39</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1103,7 +1103,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2,746.68</t>
+          <t>2,687.43</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1113,11 +1113,11 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>113.36</t>
+          <t>22.11</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>-3.96</v>
+        <v>-0.82</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1136,7 +1136,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>3,989.13</t>
+          <t>3,963.28</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1146,11 +1146,11 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>74.55</t>
+          <t>5.03</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>-1.83</v>
+        <v>-0.13</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1169,7 +1169,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>3,874.58</t>
+          <t>3,838.39</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1179,11 +1179,11 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>70.90</t>
+          <t>27.91</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>-1.8</v>
+        <v>-0.72</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1202,7 +1202,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>3,649.39</t>
+          <t>3,622.29</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1212,11 +1212,11 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>70.76</t>
+          <t>3.66</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>-1.9</v>
+        <v>-0.1</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1235,7 +1235,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>3,268.87</t>
+          <t>3,212.23</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1245,11 +1245,11 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>97.97</t>
+          <t>41.49</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>-2.91</v>
+        <v>-1.28</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1268,7 +1268,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>4,757.05</t>
+          <t>4,704.03</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1278,11 +1278,11 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>26.02</t>
+          <t>12.56</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>-0.54</v>
+        <v>-0.27</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1301,7 +1301,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>3,820.51</t>
+          <t>3,781.02</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1311,11 +1311,11 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>98.68</t>
+          <t>19.24</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>-2.52</v>
+        <v>-0.51</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1334,7 +1334,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>3,701.09</t>
+          <t>3,654.52</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1344,11 +1344,11 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>92.34</t>
+          <t>18.28</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>-2.43</v>
+        <v>-0.5</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1367,7 +1367,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>4,020.25</t>
+          <t>3,805.41</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1377,11 +1377,11 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>45.68</t>
+          <t>18.84</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>-1.12</v>
+        <v>-0.49</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1400,7 +1400,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>4,285.90</t>
+          <t>4,214.89</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1410,11 +1410,11 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>109.72</t>
+          <t>29.96</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>-2.5</v>
+        <v>-0.71</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1433,7 +1433,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>3,720.21</t>
+          <t>3,680.52</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1443,11 +1443,11 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>72.73</t>
+          <t>22.13</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>-1.92</v>
+        <v>-0.6</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1466,7 +1466,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>4,744.13</t>
+          <t>4,714.06</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1476,11 +1476,11 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>57.58</t>
+          <t>8.42</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>-1.2</v>
+        <v>-0.18</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1499,21 +1499,21 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>4,364.52</t>
+          <t>4,352.54</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>89.18</t>
+          <t>10.12</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>-2</v>
+        <v>0.23</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1532,7 +1532,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>5,253.86</t>
+          <t>5,218.14</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1542,11 +1542,11 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>65.86</t>
+          <t>48.37</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>-1.24</v>
+        <v>-0.92</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>

--- a/專題/1.xlsx
+++ b/專題/1.xlsx
@@ -476,21 +476,21 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>4,426.82</t>
+          <t>4,439.35</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>44.29</t>
+          <t>12.53</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>-0.99</v>
+        <v>0.28</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -509,7 +509,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>6,766.97</t>
+          <t>6,720.45</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -519,11 +519,11 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>43.29</t>
+          <t>46.52</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>-0.64</v>
+        <v>-0.6899999999999999</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -542,7 +542,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>4,696.81</t>
+          <t>4,628.61</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -552,11 +552,11 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>70.15</t>
+          <t>68.20</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>-1.47</v>
+        <v>-1.45</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -575,21 +575,21 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>3,435.60</t>
+          <t>3,429.45</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>7.45</t>
+          <t>6.15</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.22</v>
+        <v>-0.18</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -608,7 +608,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>7,334.68</t>
+          <t>7,278.67</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -618,11 +618,11 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>50.50</t>
+          <t>56.01</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>-0.68</v>
+        <v>-0.76</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -641,21 +641,21 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>7,920.31</t>
+          <t>7,875.74</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>44.57</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.01</v>
+        <v>-0.5600000000000001</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>5,625.73</t>
+          <t>5,591.57</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -684,11 +684,11 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12.73</t>
+          <t>34.16</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>-0.23</v>
+        <v>-0.61</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -707,7 +707,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>5,483.21</t>
+          <t>5,447.74</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -717,11 +717,11 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>38.39</t>
+          <t>35.47</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>-0.7</v>
+        <v>-0.65</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -740,7 +740,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>4,954.39</t>
+          <t>4,922.11</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -750,11 +750,11 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>33.05</t>
+          <t>32.28</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>-0.66</v>
+        <v>-0.65</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -773,7 +773,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>4,605.42</t>
+          <t>4,579.63</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -783,11 +783,11 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>51.03</t>
+          <t>25.79</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>-1.1</v>
+        <v>-0.5600000000000001</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -806,7 +806,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>4,066.48</t>
+          <t>4,040.45</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -816,11 +816,11 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>29.10</t>
+          <t>26.03</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>-0.71</v>
+        <v>-0.64</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>3,808.10</t>
+          <t>3,782.23</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -849,11 +849,11 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>8.52</t>
+          <t>25.87</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>-0.22</v>
+        <v>-0.68</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -872,7 +872,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>4,406.70</t>
+          <t>4,360.16</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -882,11 +882,11 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>42.78</t>
+          <t>46.54</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>-0.96</v>
+        <v>-1.06</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -905,7 +905,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>4,277.93</t>
+          <t>4,253.28</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -915,11 +915,11 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>22.14</t>
+          <t>24.65</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>-0.51</v>
+        <v>-0.58</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -938,7 +938,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>4,111.17</t>
+          <t>4,077.99</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -948,11 +948,11 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>30.87</t>
+          <t>33.18</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>-0.75</v>
+        <v>-0.8100000000000001</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>3,647.49</t>
+          <t>3,626.05</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -981,11 +981,11 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>41.86</t>
+          <t>21.44</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>-1.13</v>
+        <v>-0.59</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>3,739.50</t>
+          <t>3,720.57</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1014,11 +1014,11 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>18.93</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>-0.02</v>
+        <v>-0.51</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1037,7 +1037,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>4,404.66</t>
+          <t>4,377.18</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1047,11 +1047,11 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>20.04</t>
+          <t>27.48</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>-0.45</v>
+        <v>-0.62</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1070,7 +1070,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>4,144.55</t>
+          <t>4,113.10</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1080,11 +1080,11 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>16.42</t>
+          <t>31.45</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>-0.39</v>
+        <v>-0.76</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1103,7 +1103,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2,687.43</t>
+          <t>2,663.33</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1113,11 +1113,11 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>22.11</t>
+          <t>24.10</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>-0.82</v>
+        <v>-0.9</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1136,21 +1136,21 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>3,963.28</t>
+          <t>3,980.41</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>5.03</t>
+          <t>17.13</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>-0.13</v>
+        <v>0.43</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1169,7 +1169,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>3,838.39</t>
+          <t>3,810.54</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1179,11 +1179,11 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>27.91</t>
+          <t>27.85</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>-0.72</v>
+        <v>-0.73</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1202,7 +1202,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>3,622.29</t>
+          <t>3,604.41</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1212,11 +1212,11 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>3.66</t>
+          <t>17.88</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>-0.1</v>
+        <v>-0.49</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1235,7 +1235,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>3,212.23</t>
+          <t>3,180.31</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1245,11 +1245,11 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>41.49</t>
+          <t>31.92</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>-1.28</v>
+        <v>-0.99</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1268,7 +1268,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>4,704.03</t>
+          <t>4,691.04</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1278,11 +1278,11 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>12.56</t>
+          <t>12.99</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>-0.27</v>
+        <v>-0.28</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1301,7 +1301,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>3,781.02</t>
+          <t>3,752.49</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1311,11 +1311,11 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>19.24</t>
+          <t>28.53</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>-0.51</v>
+        <v>-0.75</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1334,7 +1334,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>3,654.52</t>
+          <t>3,637.92</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1344,11 +1344,11 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>18.28</t>
+          <t>16.60</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>-0.5</v>
+        <v>-0.45</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1367,7 +1367,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>3,805.41</t>
+          <t>3,733.07</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1377,11 +1377,11 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>18.84</t>
+          <t>72.34</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>-0.49</v>
+        <v>-1.9</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1400,7 +1400,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>4,214.89</t>
+          <t>4,182.82</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1410,11 +1410,11 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>29.96</t>
+          <t>32.07</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>-0.71</v>
+        <v>-0.76</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1433,7 +1433,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>3,680.52</t>
+          <t>3,665.08</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1443,11 +1443,11 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>22.13</t>
+          <t>15.44</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>-0.6</v>
+        <v>-0.42</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1466,7 +1466,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>4,714.06</t>
+          <t>4,686.57</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1476,11 +1476,11 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>8.42</t>
+          <t>27.49</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>-0.18</v>
+        <v>-0.58</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1499,21 +1499,21 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>4,352.54</t>
+          <t>4,324.67</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>10.12</t>
+          <t>27.87</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.23</v>
+        <v>-0.64</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1532,7 +1532,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>5,218.14</t>
+          <t>5,181.49</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1542,11 +1542,11 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>48.37</t>
+          <t>36.65</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>-0.92</v>
+        <v>-0.7</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>

--- a/專題/1.xlsx
+++ b/專題/1.xlsx
@@ -522,9 +522,7 @@
           <t>46.52</t>
         </is>
       </c>
-      <c r="F3" t="n">
-        <v>-0.6899999999999999</v>
-      </c>
+      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -555,9 +553,7 @@
           <t>68.20</t>
         </is>
       </c>
-      <c r="F4" t="n">
-        <v>-1.45</v>
-      </c>
+      <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -588,9 +584,7 @@
           <t>6.15</t>
         </is>
       </c>
-      <c r="F5" t="n">
-        <v>-0.18</v>
-      </c>
+      <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -621,9 +615,7 @@
           <t>56.01</t>
         </is>
       </c>
-      <c r="F6" t="n">
-        <v>-0.76</v>
-      </c>
+      <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -654,9 +646,7 @@
           <t>44.57</t>
         </is>
       </c>
-      <c r="F7" t="n">
-        <v>-0.5600000000000001</v>
-      </c>
+      <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -687,9 +677,7 @@
           <t>34.16</t>
         </is>
       </c>
-      <c r="F8" t="n">
-        <v>-0.61</v>
-      </c>
+      <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -720,9 +708,7 @@
           <t>35.47</t>
         </is>
       </c>
-      <c r="F9" t="n">
-        <v>-0.65</v>
-      </c>
+      <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -753,9 +739,7 @@
           <t>32.28</t>
         </is>
       </c>
-      <c r="F10" t="n">
-        <v>-0.65</v>
-      </c>
+      <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -786,9 +770,7 @@
           <t>25.79</t>
         </is>
       </c>
-      <c r="F11" t="n">
-        <v>-0.5600000000000001</v>
-      </c>
+      <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -819,9 +801,7 @@
           <t>26.03</t>
         </is>
       </c>
-      <c r="F12" t="n">
-        <v>-0.64</v>
-      </c>
+      <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -852,9 +832,7 @@
           <t>25.87</t>
         </is>
       </c>
-      <c r="F13" t="n">
-        <v>-0.68</v>
-      </c>
+      <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -885,9 +863,7 @@
           <t>46.54</t>
         </is>
       </c>
-      <c r="F14" t="n">
-        <v>-1.06</v>
-      </c>
+      <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -918,9 +894,7 @@
           <t>24.65</t>
         </is>
       </c>
-      <c r="F15" t="n">
-        <v>-0.58</v>
-      </c>
+      <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -951,9 +925,7 @@
           <t>33.18</t>
         </is>
       </c>
-      <c r="F16" t="n">
-        <v>-0.8100000000000001</v>
-      </c>
+      <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -984,9 +956,7 @@
           <t>21.44</t>
         </is>
       </c>
-      <c r="F17" t="n">
-        <v>-0.59</v>
-      </c>
+      <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -1017,9 +987,7 @@
           <t>18.93</t>
         </is>
       </c>
-      <c r="F18" t="n">
-        <v>-0.51</v>
-      </c>
+      <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -1050,9 +1018,7 @@
           <t>27.48</t>
         </is>
       </c>
-      <c r="F19" t="n">
-        <v>-0.62</v>
-      </c>
+      <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -1083,9 +1049,7 @@
           <t>31.45</t>
         </is>
       </c>
-      <c r="F20" t="n">
-        <v>-0.76</v>
-      </c>
+      <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -1116,9 +1080,7 @@
           <t>24.10</t>
         </is>
       </c>
-      <c r="F21" t="n">
-        <v>-0.9</v>
-      </c>
+      <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -1182,9 +1144,7 @@
           <t>27.85</t>
         </is>
       </c>
-      <c r="F23" t="n">
-        <v>-0.73</v>
-      </c>
+      <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -1215,9 +1175,7 @@
           <t>17.88</t>
         </is>
       </c>
-      <c r="F24" t="n">
-        <v>-0.49</v>
-      </c>
+      <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -1248,9 +1206,7 @@
           <t>31.92</t>
         </is>
       </c>
-      <c r="F25" t="n">
-        <v>-0.99</v>
-      </c>
+      <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -1281,9 +1237,7 @@
           <t>12.99</t>
         </is>
       </c>
-      <c r="F26" t="n">
-        <v>-0.28</v>
-      </c>
+      <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -1314,9 +1268,7 @@
           <t>28.53</t>
         </is>
       </c>
-      <c r="F27" t="n">
-        <v>-0.75</v>
-      </c>
+      <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -1347,9 +1299,7 @@
           <t>16.60</t>
         </is>
       </c>
-      <c r="F28" t="n">
-        <v>-0.45</v>
-      </c>
+      <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -1380,9 +1330,7 @@
           <t>72.34</t>
         </is>
       </c>
-      <c r="F29" t="n">
-        <v>-1.9</v>
-      </c>
+      <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -1413,9 +1361,7 @@
           <t>32.07</t>
         </is>
       </c>
-      <c r="F30" t="n">
-        <v>-0.76</v>
-      </c>
+      <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -1446,9 +1392,7 @@
           <t>15.44</t>
         </is>
       </c>
-      <c r="F31" t="n">
-        <v>-0.42</v>
-      </c>
+      <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -1479,9 +1423,7 @@
           <t>27.49</t>
         </is>
       </c>
-      <c r="F32" t="n">
-        <v>-0.58</v>
-      </c>
+      <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -1512,9 +1454,7 @@
           <t>27.87</t>
         </is>
       </c>
-      <c r="F33" t="n">
-        <v>-0.64</v>
-      </c>
+      <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -1545,9 +1485,7 @@
           <t>36.65</t>
         </is>
       </c>
-      <c r="F34" t="n">
-        <v>-0.7</v>
-      </c>
+      <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>

--- a/專題/1.xlsx
+++ b/專題/1.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>4,439.35</t>
+          <t>4,446.15</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -486,11 +486,11 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12.53</t>
+          <t>6.80</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.28</v>
+        <v>0.15</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -509,20 +509,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>6,720.45</t>
+          <t>6,848.84</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>46.52</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr"/>
+          <t>128.39</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>1.91</v>
+      </c>
       <c r="G3" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -540,20 +542,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>4,628.61</t>
+          <t>4,734.34</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>68.20</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
+          <t>105.73</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>2.28</v>
+      </c>
       <c r="G4" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -571,7 +575,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>3,429.45</t>
+          <t>3,428.35</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -581,7 +585,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>6.15</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
@@ -602,20 +606,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>7,278.67</t>
+          <t>7,401.03</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>56.01</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr"/>
+          <t>122.36</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>1.68</v>
+      </c>
       <c r="G6" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -633,20 +639,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>7,875.74</t>
+          <t>7,958.84</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>44.57</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr"/>
+          <t>83.10</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>1.06</v>
+      </c>
       <c r="G7" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -664,20 +672,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>5,591.57</t>
+          <t>5,692.85</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>34.16</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr"/>
+          <t>101.28</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>1.81</v>
+      </c>
       <c r="G8" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -695,20 +705,22 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>5,447.74</t>
+          <t>5,546.47</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>35.47</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr"/>
+          <t>98.73</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>1.81</v>
+      </c>
       <c r="G9" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -726,20 +738,22 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>4,922.11</t>
+          <t>4,998.67</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>32.28</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr"/>
+          <t>76.56</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>1.56</v>
+      </c>
       <c r="G10" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -757,20 +771,22 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>4,579.63</t>
+          <t>4,681.90</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>25.79</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr"/>
+          <t>102.27</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>2.23</v>
+      </c>
       <c r="G11" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -788,20 +804,22 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>4,040.45</t>
+          <t>4,110.81</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>26.03</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr"/>
+          <t>70.36</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>1.74</v>
+      </c>
       <c r="G12" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -819,20 +837,22 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>3,782.23</t>
+          <t>3,871.20</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>25.87</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr"/>
+          <t>88.97</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>2.35</v>
+      </c>
       <c r="G13" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -850,20 +870,22 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>4,360.16</t>
+          <t>4,467.67</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>46.54</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr"/>
+          <t>107.51</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>2.47</v>
+      </c>
       <c r="G14" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -881,20 +903,22 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>4,253.28</t>
+          <t>4,321.34</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>24.65</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr"/>
+          <t>68.06</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>1.6</v>
+      </c>
       <c r="G15" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -912,20 +936,22 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>4,077.99</t>
+          <t>4,155.12</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>33.18</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr"/>
+          <t>77.13</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>1.89</v>
+      </c>
       <c r="G16" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -943,20 +969,22 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>3,626.05</t>
+          <t>3,711.45</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>21.44</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr"/>
+          <t>85.40</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>2.36</v>
+      </c>
       <c r="G17" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -974,20 +1002,22 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>3,720.57</t>
+          <t>3,766.14</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>18.93</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr"/>
+          <t>45.57</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>1.22</v>
+      </c>
       <c r="G18" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -1005,20 +1035,22 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>4,377.18</t>
+          <t>4,433.36</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>27.48</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr"/>
+          <t>56.18</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>1.28</v>
+      </c>
       <c r="G19" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -1036,20 +1068,22 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>4,113.10</t>
+          <t>4,165.25</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>31.45</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr"/>
+          <t>52.15</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>1.27</v>
+      </c>
       <c r="G20" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -1067,20 +1101,22 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2,663.33</t>
+          <t>2,769.70</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>24.10</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr"/>
+          <t>106.37</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>3.99</v>
+      </c>
       <c r="G21" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -1098,7 +1134,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>3,980.41</t>
+          <t>4,016.38</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1108,11 +1144,11 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>17.13</t>
+          <t>35.97</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.43</v>
+        <v>0.9</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1131,20 +1167,22 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>3,810.54</t>
+          <t>3,863.17</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>27.85</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr"/>
+          <t>52.63</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>1.38</v>
+      </c>
       <c r="G23" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -1162,20 +1200,22 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>3,604.41</t>
+          <t>3,649.42</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>17.88</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr"/>
+          <t>45.01</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>1.25</v>
+      </c>
       <c r="G24" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -1193,20 +1233,22 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>3,180.31</t>
+          <t>3,281.54</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>31.92</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr"/>
+          <t>101.23</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>3.18</v>
+      </c>
       <c r="G25" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -1224,20 +1266,22 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>4,691.04</t>
+          <t>4,743.12</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>12.99</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr"/>
+          <t>52.08</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>1.11</v>
+      </c>
       <c r="G26" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -1255,20 +1299,22 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>3,752.49</t>
+          <t>3,816.82</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>28.53</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr"/>
+          <t>64.33</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>1.71</v>
+      </c>
       <c r="G27" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -1286,20 +1332,22 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>3,637.92</t>
+          <t>3,700.26</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>16.60</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr"/>
+          <t>62.34</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>1.71</v>
+      </c>
       <c r="G28" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -1317,20 +1365,22 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>3,733.07</t>
+          <t>3,785.29</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>72.34</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr"/>
+          <t>52.22</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>1.4</v>
+      </c>
       <c r="G29" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -1348,20 +1398,22 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>4,182.82</t>
+          <t>4,267.90</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>32.07</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr"/>
+          <t>85.08</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>2.03</v>
+      </c>
       <c r="G30" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -1379,20 +1431,22 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>3,665.08</t>
+          <t>3,703.32</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>15.44</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr"/>
+          <t>38.24</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>1.04</v>
+      </c>
       <c r="G31" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -1410,20 +1464,22 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>4,686.57</t>
+          <t>4,715.50</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>27.49</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr"/>
+          <t>28.93</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>0.62</v>
+      </c>
       <c r="G32" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -1441,20 +1497,22 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>4,324.67</t>
+          <t>4,379.21</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>27.87</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr"/>
+          <t>54.54</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>1.26</v>
+      </c>
       <c r="G33" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -1472,20 +1530,22 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>5,181.49</t>
+          <t>5,258.13</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>36.65</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr"/>
+          <t>76.64</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>1.48</v>
+      </c>
       <c r="G34" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>

--- a/專題/1.xlsx
+++ b/專題/1.xlsx
@@ -476,22 +476,20 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>4,446.15</t>
+          <t>4,338.04</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>6.80</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>0.15</v>
-      </c>
+          <t>30.87</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -509,22 +507,20 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>6,848.84</t>
+          <t>6,648.62</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>128.39</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>1.91</v>
-      </c>
+          <t>42.73</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -542,22 +538,20 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>4,734.34</t>
+          <t>4,562.55</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>105.73</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>2.28</v>
-      </c>
+          <t>24.84</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -575,7 +569,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>3,428.35</t>
+          <t>3,476.12</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -585,7 +579,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.10</t>
+          <t>5.96</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
@@ -606,22 +600,20 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>7,401.03</t>
+          <t>7,003.68</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>122.36</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>1.68</v>
-      </c>
+          <t>85.49</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -639,22 +631,20 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>7,958.84</t>
+          <t>7,900.56</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>83.10</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>1.06</v>
-      </c>
+          <t>18.56</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -672,22 +662,20 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>5,692.85</t>
+          <t>5,491.00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>101.28</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>1.81</v>
-      </c>
+          <t>34.02</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -705,22 +693,20 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>5,546.47</t>
+          <t>5,281.79</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>98.73</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>1.81</v>
-      </c>
+          <t>65.42</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -738,22 +724,20 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>4,998.67</t>
+          <t>4,830.24</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>76.56</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>1.56</v>
-      </c>
+          <t>60.65</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -771,22 +755,20 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>4,681.90</t>
+          <t>4,396.53</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>102.27</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>2.23</v>
-      </c>
+          <t>58.93</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -804,22 +786,20 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>4,110.81</t>
+          <t>3,909.33</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>70.36</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>1.74</v>
-      </c>
+          <t>51.90</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -837,22 +817,20 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>3,871.20</t>
+          <t>3,617.27</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>88.97</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>2.35</v>
-      </c>
+          <t>19.34</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -870,22 +848,20 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>4,467.67</t>
+          <t>4,227.59</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>107.51</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>2.47</v>
-      </c>
+          <t>54.08</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -903,22 +879,20 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>4,321.34</t>
+          <t>4,190.71</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>68.06</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>1.6</v>
-      </c>
+          <t>32.69</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -936,22 +910,20 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>4,155.12</t>
+          <t>3,960.31</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>77.13</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>1.89</v>
-      </c>
+          <t>56.46</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -969,22 +941,20 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>3,711.45</t>
+          <t>3,482.49</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>85.40</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>2.36</v>
-      </c>
+          <t>46.55</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -1002,22 +972,20 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>3,766.14</t>
+          <t>3,717.23</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>45.57</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>1.22</v>
-      </c>
+          <t>42.81</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -1035,22 +1003,20 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>4,433.36</t>
+          <t>4,314.85</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>56.18</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>1.28</v>
-      </c>
+          <t>49.81</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -1068,22 +1034,20 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>4,165.25</t>
+          <t>4,044.68</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>52.15</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>1.27</v>
-      </c>
+          <t>59.90</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -1101,7 +1065,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2,769.70</t>
+          <t>2,571.35</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1111,11 +1075,11 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>106.37</t>
+          <t>3.17</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>3.99</v>
+        <v>0.12</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1134,7 +1098,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>4,016.38</t>
+          <t>4,035.23</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1144,11 +1108,11 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>35.97</t>
+          <t>3.62</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.9</v>
+        <v>0.09</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1167,22 +1131,20 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>3,863.17</t>
+          <t>3,744.06</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>52.63</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>1.38</v>
-      </c>
+          <t>50.80</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -1200,22 +1162,20 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>3,649.42</t>
+          <t>3,652.32</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>45.01</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>1.25</v>
-      </c>
+          <t>7.58</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -1233,22 +1193,20 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>3,281.54</t>
+          <t>3,079.45</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>101.23</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>3.18</v>
-      </c>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -1266,22 +1224,20 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>4,743.12</t>
+          <t>4,692.77</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>52.08</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>1.11</v>
-      </c>
+          <t>21.57</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -1299,22 +1255,20 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>3,816.82</t>
+          <t>3,794.31</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>64.33</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>1.71</v>
-      </c>
+          <t>22.57</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -1332,22 +1286,20 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>3,700.26</t>
+          <t>3,599.01</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>62.34</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>1.71</v>
-      </c>
+          <t>43.73</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -1365,22 +1317,20 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>3,785.29</t>
+          <t>3,490.18</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>52.22</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>1.4</v>
-      </c>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -1398,22 +1348,20 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>4,267.90</t>
+          <t>4,018.10</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>85.08</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>2.03</v>
-      </c>
+          <t>67.48</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -1431,22 +1379,20 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>3,703.32</t>
+          <t>3,698.45</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>38.24</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>1.04</v>
-      </c>
+          <t>32.39</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -1464,22 +1410,20 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>4,715.50</t>
+          <t>4,722.88</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>28.93</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>0.62</v>
-      </c>
+          <t>17.77</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -1497,22 +1441,20 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>4,379.21</t>
+          <t>4,373.24</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>54.54</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>1.26</v>
-      </c>
+          <t>18.07</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -1530,22 +1472,20 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>5,258.13</t>
+          <t>5,135.49</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>76.64</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>1.48</v>
-      </c>
+          <t>86.22</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
